--- a/common/LevelEnemy.xlsx
+++ b/common/LevelEnemy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>序号</t>
-  </si>
-  <si>
-    <t>据点战斗力</t>
   </si>
   <si>
     <t>据点威严</t>
@@ -35,6 +32,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -51,22 +55,13 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">combat_power </t>
-    </r>
-    <r>
       <rPr>
-        <i/>
-        <u/>
+        <b/>
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">maje </t>
     </r>
     <r>
@@ -83,6 +78,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">rep </t>
     </r>
     <r>
@@ -99,6 +101,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">portray </t>
     </r>
     <r>
@@ -115,6 +124,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">reward </t>
     </r>
     <r>
@@ -135,12 +151,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,61 +178,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,19 +194,50 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -259,9 +253,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,9 +268,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,16 +321,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,7 +357,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,19 +447,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,49 +513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,85 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,17 +560,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,21 +601,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,26 +623,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,18 +648,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,133 +677,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -799,7 +822,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -848,7 +871,8 @@
     <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 10 2" xfId="48"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1121,24 +1145,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="15.75" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1154,213 +1176,2262 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" ht="32.25" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="32.25" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="1">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1">
+        <v>800</v>
+      </c>
+      <c r="D3" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="1">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1">
+        <v>808</v>
+      </c>
+      <c r="D4" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="1">
+        <v>84</v>
+      </c>
+      <c r="C5" s="1">
+        <v>816</v>
+      </c>
+      <c r="D5" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" s="1">
+        <v>85</v>
+      </c>
+      <c r="C6" s="1">
+        <v>824</v>
+      </c>
+      <c r="D6" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" s="1">
+        <v>87</v>
+      </c>
+      <c r="C7" s="1">
+        <v>832</v>
+      </c>
+      <c r="D7" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" s="1">
+        <v>89</v>
+      </c>
+      <c r="C8" s="1">
+        <v>848</v>
+      </c>
+      <c r="D8" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="1">
+        <v>92</v>
+      </c>
+      <c r="C9" s="1">
+        <v>864</v>
+      </c>
+      <c r="D9" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" s="1">
+        <v>95</v>
+      </c>
+      <c r="C10" s="1">
+        <v>880</v>
+      </c>
+      <c r="D10" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" s="1">
+        <v>101</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" s="1">
+        <v>103</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D12" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="1">
+        <v>105</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D13" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" s="1">
+        <v>107</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1030</v>
+      </c>
+      <c r="D14" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" s="1">
+        <v>109</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D15" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="1">
+        <v>112</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1060</v>
+      </c>
+      <c r="D16" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="1">
+        <v>115</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1080</v>
+      </c>
+      <c r="D17" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="1">
+        <v>118</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1100</v>
+      </c>
+      <c r="D18" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="1">
+        <v>131</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D19" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="1">
+        <v>133</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1313</v>
+      </c>
+      <c r="D20" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="1">
+        <v>136</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1326</v>
+      </c>
+      <c r="D21" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="1">
+        <v>139</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1339</v>
+      </c>
+      <c r="D22" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" s="1">
+        <v>141</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1352</v>
+      </c>
+      <c r="D23" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="1">
+        <v>146</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1378</v>
+      </c>
+      <c r="D24" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="1">
+        <v>150</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1404</v>
+      </c>
+      <c r="D25" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="1">
+        <v>154</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D26" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" s="1">
+        <v>161</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D27" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="1">
+        <v>164</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1616</v>
+      </c>
+      <c r="D28" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" s="1">
+        <v>168</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1632</v>
+      </c>
+      <c r="D29" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" s="1">
+        <v>171</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1648</v>
+      </c>
+      <c r="D30" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="1">
+        <v>174</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1664</v>
+      </c>
+      <c r="D31" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="1">
+        <v>179</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1696</v>
+      </c>
+      <c r="D32" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="1">
+        <v>184</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1728</v>
+      </c>
+      <c r="D33" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="1">
+        <v>190</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1760</v>
+      </c>
+      <c r="D34" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="1">
+        <v>202</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="1">
+        <v>206</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D36" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" s="1">
+        <v>210</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2040</v>
+      </c>
+      <c r="D37" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" s="1">
+        <v>214</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2060</v>
+      </c>
+      <c r="D38" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>218</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2080</v>
+      </c>
+      <c r="D39" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>224</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2120</v>
+      </c>
+      <c r="D40" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>231</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2160</v>
+      </c>
+      <c r="D41" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>237</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2200</v>
+      </c>
+      <c r="D42" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>252</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D43" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>257</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2525</v>
+      </c>
+      <c r="D44" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>262</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2550</v>
+      </c>
+      <c r="D45" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>267</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2575</v>
+      </c>
+      <c r="D46" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>273</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2600</v>
+      </c>
+      <c r="D47" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>280</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2650</v>
+      </c>
+      <c r="D48" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>288</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2700</v>
+      </c>
+      <c r="D49" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>297</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2750</v>
+      </c>
+      <c r="D50" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>303</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D51" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>309</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3030</v>
+      </c>
+      <c r="D52" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>315</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3060</v>
+      </c>
+      <c r="D53" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>321</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3090</v>
+      </c>
+      <c r="D54" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>327</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3120</v>
+      </c>
+      <c r="D55" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>337</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3180</v>
+      </c>
+      <c r="D56" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>346</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3240</v>
+      </c>
+      <c r="D57" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>356</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3300</v>
+      </c>
+      <c r="D58" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>353</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D59" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>360</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3535</v>
+      </c>
+      <c r="D60" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>367</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3570</v>
+      </c>
+      <c r="D61" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>374</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3605</v>
+      </c>
+      <c r="D62" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>382</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3640</v>
+      </c>
+      <c r="D63" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>393</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3710</v>
+      </c>
+      <c r="D64" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>404</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3780</v>
+      </c>
+      <c r="D65" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>415</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3850</v>
+      </c>
+      <c r="D66" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>404</v>
+      </c>
+      <c r="C67" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D67" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>412</v>
+      </c>
+      <c r="C68" s="1">
+        <v>4040</v>
+      </c>
+      <c r="D68" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>420</v>
+      </c>
+      <c r="C69" s="1">
+        <v>4080</v>
+      </c>
+      <c r="D69" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>428</v>
+      </c>
+      <c r="C70" s="1">
+        <v>4120</v>
+      </c>
+      <c r="D70" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>436</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4160</v>
+      </c>
+      <c r="D71" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <v>449</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4240</v>
+      </c>
+      <c r="D72" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
+        <v>462</v>
+      </c>
+      <c r="C73" s="1">
+        <v>4320</v>
+      </c>
+      <c r="D73" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
+        <v>475</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D74" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <v>505</v>
+      </c>
+      <c r="C75" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D75" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
+        <v>515</v>
+      </c>
+      <c r="C76" s="1">
+        <v>5050</v>
+      </c>
+      <c r="D76" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
+        <v>525</v>
+      </c>
+      <c r="C77" s="1">
+        <v>5100</v>
+      </c>
+      <c r="D77" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>535</v>
+      </c>
+      <c r="C78" s="1">
+        <v>5150</v>
+      </c>
+      <c r="D78" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <v>546</v>
+      </c>
+      <c r="C79" s="1">
+        <v>5200</v>
+      </c>
+      <c r="D79" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1">
+        <v>561</v>
+      </c>
+      <c r="C80" s="1">
+        <v>5300</v>
+      </c>
+      <c r="D80" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1">
+        <v>577</v>
+      </c>
+      <c r="C81" s="1">
+        <v>5400</v>
+      </c>
+      <c r="D81" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
+        <v>594</v>
+      </c>
+      <c r="C82" s="1">
+        <v>5500</v>
+      </c>
+      <c r="D82" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1">
+        <v>606</v>
+      </c>
+      <c r="C83" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D83" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
+        <v>618</v>
+      </c>
+      <c r="C84" s="1">
+        <v>6060</v>
+      </c>
+      <c r="D84" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1">
+        <v>630</v>
+      </c>
+      <c r="C85" s="1">
+        <v>6120</v>
+      </c>
+      <c r="D85" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1">
+        <v>642</v>
+      </c>
+      <c r="C86" s="1">
+        <v>6180</v>
+      </c>
+      <c r="D86" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1">
+        <v>655</v>
+      </c>
+      <c r="C87" s="1">
+        <v>6240</v>
+      </c>
+      <c r="D87" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1">
+        <v>674</v>
+      </c>
+      <c r="C88" s="1">
+        <v>6360</v>
+      </c>
+      <c r="D88" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1">
+        <v>693</v>
+      </c>
+      <c r="C89" s="1">
+        <v>6480</v>
+      </c>
+      <c r="D89" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1">
+        <v>712</v>
+      </c>
+      <c r="C90" s="1">
+        <v>6600</v>
+      </c>
+      <c r="D90" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1">
+        <v>707</v>
+      </c>
+      <c r="C91" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D91" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1">
+        <v>721</v>
+      </c>
+      <c r="C92" s="1">
+        <v>7070</v>
+      </c>
+      <c r="D92" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1">
+        <v>735</v>
+      </c>
+      <c r="C93" s="1">
+        <v>7140</v>
+      </c>
+      <c r="D93" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1">
+        <v>749</v>
+      </c>
+      <c r="C94" s="1">
+        <v>7210</v>
+      </c>
+      <c r="D94" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1">
+        <v>764</v>
+      </c>
+      <c r="C95" s="1">
+        <v>7280</v>
+      </c>
+      <c r="D95" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1">
+        <v>786</v>
+      </c>
+      <c r="C96" s="1">
+        <v>7420</v>
+      </c>
+      <c r="D96" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1">
+        <v>808</v>
+      </c>
+      <c r="C97" s="1">
+        <v>7560</v>
+      </c>
+      <c r="D97" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1">
+        <v>831</v>
+      </c>
+      <c r="C98" s="1">
+        <v>7700</v>
+      </c>
+      <c r="D98" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1">
+        <v>808</v>
+      </c>
+      <c r="C99" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D99" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1">
+        <v>824</v>
+      </c>
+      <c r="C100" s="1">
+        <v>8080</v>
+      </c>
+      <c r="D100" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1">
+        <v>840</v>
+      </c>
+      <c r="C101" s="1">
+        <v>8160</v>
+      </c>
+      <c r="D101" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1">
+        <v>856</v>
+      </c>
+      <c r="C102" s="1">
+        <v>8240</v>
+      </c>
+      <c r="D102" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1">
+        <v>873</v>
+      </c>
+      <c r="C103" s="1">
+        <v>8320</v>
+      </c>
+      <c r="D103" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1">
+        <v>898</v>
+      </c>
+      <c r="C104" s="1">
+        <v>8480</v>
+      </c>
+      <c r="D104" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1">
+        <v>924</v>
+      </c>
+      <c r="C105" s="1">
+        <v>8640</v>
+      </c>
+      <c r="D105" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1">
+        <v>950</v>
+      </c>
+      <c r="C106" s="1">
+        <v>8800</v>
+      </c>
+      <c r="D106" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1">
+        <v>909</v>
+      </c>
+      <c r="C107" s="1">
+        <v>9000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1">
+        <v>927</v>
+      </c>
+      <c r="C108" s="1">
+        <v>9090</v>
+      </c>
+      <c r="D108" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1">
+        <v>945</v>
+      </c>
+      <c r="C109" s="1">
+        <v>9180</v>
+      </c>
+      <c r="D109" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1">
+        <v>964</v>
+      </c>
+      <c r="C110" s="1">
+        <v>9270</v>
+      </c>
+      <c r="D110" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1">
+        <v>982</v>
+      </c>
+      <c r="C111" s="1">
+        <v>9360</v>
+      </c>
+      <c r="D111" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1011</v>
+      </c>
+      <c r="C112" s="1">
+        <v>9540</v>
+      </c>
+      <c r="D112" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1040</v>
+      </c>
+      <c r="C113" s="1">
+        <v>9720</v>
+      </c>
+      <c r="D113" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1069</v>
+      </c>
+      <c r="C114" s="1">
+        <v>9900</v>
+      </c>
+      <c r="D114" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1010</v>
+      </c>
+      <c r="C115" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D115" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1030</v>
+      </c>
+      <c r="C116" s="1">
+        <v>10100</v>
+      </c>
+      <c r="D116" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1050</v>
+      </c>
+      <c r="C117" s="1">
+        <v>10200</v>
+      </c>
+      <c r="D117" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1071</v>
+      </c>
+      <c r="C118" s="1">
+        <v>10300</v>
+      </c>
+      <c r="D118" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1092</v>
+      </c>
+      <c r="C119" s="1">
+        <v>10400</v>
+      </c>
+      <c r="D119" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1123</v>
+      </c>
+      <c r="C120" s="1">
+        <v>10600</v>
+      </c>
+      <c r="D120" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1155</v>
+      </c>
+      <c r="C121" s="1">
+        <v>10800</v>
+      </c>
+      <c r="D121" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1188</v>
+      </c>
+      <c r="C122" s="1">
+        <v>11000</v>
+      </c>
+      <c r="D122" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1212</v>
+      </c>
+      <c r="C123" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D123" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1236</v>
+      </c>
+      <c r="C124" s="1">
+        <v>12120</v>
+      </c>
+      <c r="D124" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1260</v>
+      </c>
+      <c r="C125" s="1">
+        <v>12240</v>
+      </c>
+      <c r="D125" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1285</v>
+      </c>
+      <c r="C126" s="1">
+        <v>12360</v>
+      </c>
+      <c r="D126" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1310</v>
+      </c>
+      <c r="C127" s="1">
+        <v>12480</v>
+      </c>
+      <c r="D127" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1348</v>
+      </c>
+      <c r="C128" s="1">
+        <v>12720</v>
+      </c>
+      <c r="D128" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1386</v>
+      </c>
+      <c r="C129" s="1">
+        <v>12960</v>
+      </c>
+      <c r="D129" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1425</v>
+      </c>
+      <c r="C130" s="1">
+        <v>13200</v>
+      </c>
+      <c r="D130" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1414</v>
+      </c>
+      <c r="C131" s="1">
+        <v>14000</v>
+      </c>
+      <c r="D131" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1442</v>
+      </c>
+      <c r="C132" s="1">
+        <v>14140</v>
+      </c>
+      <c r="D132" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1470</v>
+      </c>
+      <c r="C133" s="1">
+        <v>14280</v>
+      </c>
+      <c r="D133" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1499</v>
+      </c>
+      <c r="C134" s="1">
+        <v>14420</v>
+      </c>
+      <c r="D134" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1528</v>
+      </c>
+      <c r="C135" s="1">
+        <v>14560</v>
+      </c>
+      <c r="D135" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1573</v>
+      </c>
+      <c r="C136" s="1">
+        <v>14840</v>
+      </c>
+      <c r="D136" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1617</v>
+      </c>
+      <c r="C137" s="1">
+        <v>15120</v>
+      </c>
+      <c r="D137" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1663</v>
+      </c>
+      <c r="C138" s="1">
+        <v>15400</v>
+      </c>
+      <c r="D138" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1616</v>
+      </c>
+      <c r="C139" s="1">
+        <v>16000</v>
+      </c>
+      <c r="D139" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1648</v>
+      </c>
+      <c r="C140" s="1">
+        <v>16160</v>
+      </c>
+      <c r="D140" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1680</v>
+      </c>
+      <c r="C141" s="1">
+        <v>16320</v>
+      </c>
+      <c r="D141" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1713</v>
+      </c>
+      <c r="C142" s="1">
+        <v>16480</v>
+      </c>
+      <c r="D142" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1747</v>
+      </c>
+      <c r="C143" s="1">
+        <v>16640</v>
+      </c>
+      <c r="D143" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1797</v>
+      </c>
+      <c r="C144" s="1">
+        <v>16960</v>
+      </c>
+      <c r="D144" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1848</v>
+      </c>
+      <c r="C145" s="1">
+        <v>17280</v>
+      </c>
+      <c r="D145" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1900</v>
+      </c>
+      <c r="C146" s="1">
+        <v>17600</v>
+      </c>
+      <c r="D146" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1818</v>
+      </c>
+      <c r="C147" s="1">
+        <v>18000</v>
+      </c>
+      <c r="D147" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1854</v>
+      </c>
+      <c r="C148" s="1">
+        <v>18180</v>
+      </c>
+      <c r="D148" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1891</v>
+      </c>
+      <c r="C149" s="1">
+        <v>18360</v>
+      </c>
+      <c r="D149" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1928</v>
+      </c>
+      <c r="C150" s="1">
+        <v>18540</v>
+      </c>
+      <c r="D150" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1965</v>
+      </c>
+      <c r="C151" s="1">
+        <v>18720</v>
+      </c>
+      <c r="D151" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C152" s="1">
+        <v>19080</v>
+      </c>
+      <c r="D152" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2080</v>
+      </c>
+      <c r="C153" s="1">
+        <v>19440</v>
+      </c>
+      <c r="D153" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1">
+        <v>2138</v>
+      </c>
+      <c r="C154" s="1">
+        <v>19800</v>
+      </c>
+      <c r="D154" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C155" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D155" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1">
+        <v>2060</v>
+      </c>
+      <c r="C156" s="1">
+        <v>20200</v>
+      </c>
+      <c r="D156" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1">
+        <v>2101</v>
+      </c>
+      <c r="C157" s="1">
+        <v>20400</v>
+      </c>
+      <c r="D157" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1">
+        <v>2142</v>
+      </c>
+      <c r="C158" s="1">
+        <v>20600</v>
+      </c>
+      <c r="D158" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1">
+        <v>2184</v>
+      </c>
+      <c r="C159" s="1">
+        <v>20800</v>
+      </c>
+      <c r="D159" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1">
+        <v>2247</v>
+      </c>
+      <c r="C160" s="1">
+        <v>21200</v>
+      </c>
+      <c r="D160" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1">
+        <v>2311</v>
+      </c>
+      <c r="C161" s="1">
+        <v>21600</v>
+      </c>
+      <c r="D161" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1">
+        <v>2376</v>
+      </c>
+      <c r="C162" s="1">
+        <v>22000</v>
+      </c>
+      <c r="D162" s="1">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
